--- a/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
+++ b/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,156 +22,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">Cronograma Resolve Aí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsáveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Início</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Fim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levantar os requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concluída</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analisar e negociar os requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iolanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoramento 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade de levantamento de requisitos dentro do prazo e com a entrega de todos os artefatos esperados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoramento 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade de análise e negociação dentro do prazo e finalizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificar os requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weverton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditar processo GRE (Fase 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 e 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renan e Luana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Diagrama de Casos de Uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Modelo Conceitual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Protótipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocorreram alguns atrasos na execução da Fase 1 da auditoria do GRE mas a mesma foi realizada com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejar correção das não-conformidades (Fase 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar correções (Fase 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipe de requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar correção (Fase 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todas as correções foram implementadas corretamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditar processo GRE (Fase 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar Documento de Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejar correção das não-conformidades (Fase 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar correções (Fase 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar correção (Fase 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obter aprovação com o cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus, Iolanda e Weverton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoramento 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obter confirmação de comprometimento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+  <si>
+    <t>Cronograma Resolve Aí</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Dependência</t>
+  </si>
+  <si>
+    <t>Responsáveis</t>
+  </si>
+  <si>
+    <t>Data Início</t>
+  </si>
+  <si>
+    <t>Data Fim</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Levantar os requisitos</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Concluída</t>
+  </si>
+  <si>
+    <t>Analisar e negociar os requisitos</t>
+  </si>
+  <si>
+    <t>Iolanda</t>
+  </si>
+  <si>
+    <t>Monitoramento 1</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Atividade de levantamento de requisitos dentro do prazo e com a entrega de todos os artefatos esperados</t>
+  </si>
+  <si>
+    <t>Monitoramento 2</t>
+  </si>
+  <si>
+    <t>Atividade de análise e negociação dentro do prazo e finalizada</t>
+  </si>
+  <si>
+    <t>Especificar os requisitos</t>
+  </si>
+  <si>
+    <t>Weverton</t>
+  </si>
+  <si>
+    <t>GQA</t>
+  </si>
+  <si>
+    <t>Auditar processo GRE (Fase 1)</t>
+  </si>
+  <si>
+    <t>1 e 2</t>
+  </si>
+  <si>
+    <t>Renan e Luana</t>
+  </si>
+  <si>
+    <t>Avaliar Diagrama de Casos de Uso</t>
+  </si>
+  <si>
+    <t>Avaliar Modelo Conceitual</t>
+  </si>
+  <si>
+    <t>Avaliar Protótipo</t>
+  </si>
+  <si>
+    <t>Ocorreram alguns atrasos na execução da Fase 1 da auditoria do GRE mas a mesma foi realizada com sucesso</t>
+  </si>
+  <si>
+    <t>Planejar correção das não-conformidades (Fase 1)</t>
+  </si>
+  <si>
+    <t>Implementar correções (Fase 1)</t>
+  </si>
+  <si>
+    <t>Equipe de requisitos</t>
+  </si>
+  <si>
+    <t>Avaliar correção (Fase 1)</t>
+  </si>
+  <si>
+    <t>Todas as correções foram implementadas corretamente.</t>
+  </si>
+  <si>
+    <t>Auditar processo GRE (Fase 2)</t>
+  </si>
+  <si>
+    <t>Avaliar Documento de Requisitos</t>
+  </si>
+  <si>
+    <t>Planejar correção das não-conformidades (Fase 2)</t>
+  </si>
+  <si>
+    <t>Implementar correções (Fase 2)</t>
+  </si>
+  <si>
+    <t>Avaliar correção (Fase 2)</t>
+  </si>
+  <si>
+    <t>Obter aprovação com o cliente</t>
+  </si>
+  <si>
+    <t>Matheus, Iolanda e Weverton</t>
+  </si>
+  <si>
+    <t>Monitoramento 3</t>
+  </si>
+  <si>
+    <t>Obter confirmação de comprometimento</t>
+  </si>
+  <si>
+    <t>Não houve necessidade</t>
+  </si>
+  <si>
+    <t>A fase 2 da auditoria do GRE não gerou inconformidades.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="D\.M"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,22 +185,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -234,169 +226,163 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -455,35 +441,331 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="105.525510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="14.1734693877551"/>
+    <col min="1" max="1" width="14.140625"/>
+    <col min="2" max="2" width="11"/>
+    <col min="3" max="3" width="48.42578125"/>
+    <col min="4" max="4" width="25.140625"/>
+    <col min="5" max="5" width="28.140625"/>
+    <col min="6" max="7" width="14.140625"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.5703125"/>
+    <col min="10" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +778,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,8 +807,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -541,10 +823,10 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>43049</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>43054</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -552,8 +834,8 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -562,16 +844,16 @@
       <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="10">
         <v>43054</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>43057</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -579,8 +861,8 @@
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -589,13 +871,13 @@
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>43055</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -608,8 +890,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -618,13 +900,13 @@
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>43057</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -637,8 +919,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -647,16 +929,16 @@
       <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>43057</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>43059</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -664,8 +946,8 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -680,10 +962,10 @@
       <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="14">
         <v>43057</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="14">
         <v>43058</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -691,8 +973,8 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>42741</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -701,16 +983,16 @@
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>43057</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>43058</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -718,8 +1000,8 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>42772</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -728,16 +1010,16 @@
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="10">
         <v>43057</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="10">
         <v>43058</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -745,8 +1027,8 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>42800</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -755,16 +1037,16 @@
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="10">
         <v>43057</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>43058</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -772,8 +1054,8 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -782,13 +1064,13 @@
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>6</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="20">
         <v>43058</v>
       </c>
       <c r="G12" s="21" t="s">
@@ -801,8 +1083,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -811,13 +1093,13 @@
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="10">
         <v>43058</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -828,8 +1110,8 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -838,13 +1120,13 @@
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="10">
         <v>43059</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -855,8 +1137,8 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -865,13 +1147,13 @@
       <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="10">
         <v>43059</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -884,8 +1166,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -894,23 +1176,25 @@
       <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="13">
         <v>6</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="14">
         <v>43059</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>42746</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -919,21 +1203,25 @@
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="10">
         <v>43059</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -942,23 +1230,27 @@
       <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>11</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="10">
         <v>43059</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="H18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -967,23 +1259,27 @@
       <c r="C19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>12</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="10">
         <v>43059</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -992,13 +1288,13 @@
       <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>11</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="10">
         <v>43060</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -1007,8 +1303,8 @@
       <c r="H20" s="9"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1017,13 +1313,13 @@
       <c r="C21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="9">
         <v>13</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="10">
         <v>43060</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -1032,8 +1328,8 @@
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1042,13 +1338,13 @@
       <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="10">
         <v>43061</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -1057,8 +1353,8 @@
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1067,13 +1363,13 @@
       <c r="C23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>16</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="10">
         <v>43059</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1082,8 +1378,8 @@
       <c r="H23" s="9"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1092,13 +1388,13 @@
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>16</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="10">
         <v>43062</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -1111,12 +1407,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
+++ b/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Cronograma Resolve Aí</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>A fase 2 da auditoria do GRE não gerou inconformidades.</t>
+  </si>
+  <si>
+    <t>Todas as atividades previstas até o momento foram concluídas.</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Documento de requisitos enviado ao cliente para aprovação.</t>
   </si>
 </sst>
 </file>
@@ -291,9 +300,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,6 +355,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -761,647 +770,659 @@
     <col min="5" max="5" width="28.140625"/>
     <col min="6" max="7" width="14.140625"/>
     <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="105.5703125"/>
+    <col min="9" max="9" width="109.7109375" customWidth="1"/>
     <col min="10" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>43049</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>43054</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43054</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>43057</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>43055</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>43057</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>43057</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>43059</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>43057</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>43058</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="16"/>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>42741</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>43057</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>43058</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="11"/>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>42772</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>43057</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>43058</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>42800</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>43057</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>43058</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>6</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>43058</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="G12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>6</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>43058</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>43059</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="11"/>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>43059</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>6</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>43059</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="16"/>
+      <c r="G16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>42746</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>43059</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>11</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>43059</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="8">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>43059</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>11</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>43060</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>13</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>43060</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>13</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>43061</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>16</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>43059</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>16</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>43062</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
+++ b/02-Projeto/01-ResolveAi/04-Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Cronograma Resolve Aí</t>
   </si>
@@ -171,10 +171,10 @@
     <t>Todas as atividades previstas até o momento foram concluídas.</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Documento de requisitos enviado ao cliente para aprovação.</t>
+    <t>Aprovação adquirida.</t>
+  </si>
+  <si>
+    <t>Todos confirmaram comprometimento e aprovaram os requisitos.</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1368,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -1391,13 +1391,17 @@
         <v>18</v>
       </c>
       <c r="F23" s="9">
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -1421,8 +1425,12 @@
       <c r="G24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
